--- a/Projet_2(organisation)/Final/devis.xlsx
+++ b/Projet_2(organisation)/Final/devis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_documents\OpenClassroom\OC\Projet_2(organisation)\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_documents\OpenClassroom\OC\Projet_2(organisation)\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -371,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -454,7 +454,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -885,7 +884,7 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,11 +927,11 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -1140,12 +1139,12 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="16" t="s">
         <v>10</v>
       </c>
@@ -1160,12 +1159,12 @@
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="18"/>
       <c r="F24" s="19"/>
       <c r="G24" s="6"/>
@@ -1179,11 +1178,11 @@
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
       <c r="E25" s="23">
-        <v>478.63636363636368</v>
+        <v>331.36363636363643</v>
       </c>
       <c r="F25" s="24">
         <f>E25*1.196</f>
-        <v>572.44909090909096</v>
+        <v>396.31090909090915</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1196,11 +1195,11 @@
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <v>1435.909090909091</v>
+        <v>1325.4545454545457</v>
       </c>
       <c r="F26" s="24">
         <f>E26*1.196</f>
-        <v>1717.3472727272729</v>
+        <v>1585.2436363636366</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1213,11 +1212,11 @@
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="23">
-        <v>2393.1818181818185</v>
+        <v>1656.818181818182</v>
       </c>
       <c r="F27" s="24">
         <f>E27*1.196</f>
-        <v>2862.2454545454548</v>
+        <v>1981.5545454545456</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1230,11 +1229,11 @@
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="23">
-        <v>239.31818181818184</v>
+        <v>165.68181818181822</v>
       </c>
       <c r="F28" s="24">
         <f>E28*1.196</f>
-        <v>286.22454545454548</v>
+        <v>198.15545454545457</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1259,11 +1258,11 @@
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
       <c r="E30" s="23">
-        <v>694.39499999999998</v>
+        <v>638.26159090909096</v>
       </c>
       <c r="F30" s="24">
         <f>E30*1.196</f>
-        <v>830.49641999999994</v>
+        <v>763.36086272727277</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1276,11 +1275,11 @@
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
       <c r="E31" s="23">
-        <v>1382.7272727272725</v>
+        <v>1435.9090909090908</v>
       </c>
       <c r="F31" s="24">
         <f>E31*1.196</f>
-        <v>1653.741818181818</v>
+        <v>1717.3472727272724</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1293,11 +1292,11 @@
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
       <c r="E32" s="23">
-        <v>1604.1763636363637</v>
+        <v>1334.5118181818182</v>
       </c>
       <c r="F32" s="24">
         <f>E32*1.196</f>
-        <v>1918.5949309090909</v>
+        <v>1596.0761345454546</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1310,11 +1309,11 @@
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
       <c r="E33" s="23">
-        <v>553.09090909090912</v>
+        <v>574.36363636363637</v>
       </c>
       <c r="F33" s="24">
         <f>E33*1.196</f>
-        <v>661.4967272727273</v>
+        <v>686.93890909090908</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1327,11 +1326,11 @@
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
       <c r="E34" s="23">
-        <v>377.59090909090907</v>
+        <v>309.27272727272731</v>
       </c>
       <c r="F34" s="24">
         <f>E34*1.196</f>
-        <v>451.59872727272722</v>
+        <v>369.89018181818187</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1356,11 +1355,11 @@
       <c r="C36" s="34"/>
       <c r="D36" s="35"/>
       <c r="E36" s="23">
-        <v>646.90363636363634</v>
+        <v>671.78454545454554</v>
       </c>
       <c r="F36" s="24">
         <f t="shared" ref="F36:F41" si="0">E36*1.196</f>
-        <v>773.69674909090907</v>
+        <v>803.45431636363639</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1373,11 +1372,11 @@
       <c r="C37" s="21"/>
       <c r="D37" s="22"/>
       <c r="E37" s="23">
-        <v>1267.2163636363637</v>
+        <v>1651.8477272727275</v>
       </c>
       <c r="F37" s="24">
         <f t="shared" si="0"/>
-        <v>1515.5907709090909</v>
+        <v>1975.609881818182</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1390,11 +1389,11 @@
       <c r="C38" s="34"/>
       <c r="D38" s="35"/>
       <c r="E38" s="23">
-        <v>276.54545454545456</v>
+        <v>574.36363636363637</v>
       </c>
       <c r="F38" s="24">
         <f t="shared" si="0"/>
-        <v>330.74836363636365</v>
+        <v>686.93890909090908</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1407,11 +1406,11 @@
       <c r="C39" s="21"/>
       <c r="D39" s="22"/>
       <c r="E39" s="23">
-        <v>401.04409090909093</v>
+        <v>333.62795454545454</v>
       </c>
       <c r="F39" s="24">
         <f t="shared" si="0"/>
-        <v>479.64873272727272</v>
+        <v>399.01903363636364</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1424,28 +1423,28 @@
       <c r="C40" s="21"/>
       <c r="D40" s="22"/>
       <c r="E40" s="23">
-        <v>1267.2163636363637</v>
+        <v>1315.9554545454546</v>
       </c>
       <c r="F40" s="24">
         <f t="shared" si="0"/>
-        <v>1515.5907709090909</v>
+        <v>1573.8827236363636</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="46">
-        <v>310.16000000000003</v>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="23">
+        <v>322.08545454545458</v>
       </c>
       <c r="F41" s="24">
         <f t="shared" si="0"/>
-        <v>370.95136000000002</v>
+        <v>385.21420363636366</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1475,14 +1474,14 @@
     <row r="45" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="38">
         <f>SUM(E25:E41)</f>
-        <v>13328.111818181818</v>
+        <v>12641.301818181817</v>
       </c>
       <c r="B45" s="39">
-        <v>0.19600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C45" s="40">
-        <f>A45*0.196</f>
-        <v>2612.3099163636366</v>
+        <f>A45*B45</f>
+        <v>2528.2603636363638</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
@@ -1500,7 +1499,7 @@
       </c>
       <c r="F46" s="38">
         <f>A45</f>
-        <v>13328.111818181818</v>
+        <v>12641.301818181817</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -1515,7 +1514,7 @@
       </c>
       <c r="F47" s="40">
         <f>C45</f>
-        <v>2612.3099163636366</v>
+        <v>2528.2603636363638</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -1532,7 +1531,7 @@
       </c>
       <c r="F48" s="38">
         <f>F47+F46</f>
-        <v>15940.421734545454</v>
+        <v>15169.562181818181</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -1558,7 +1557,7 @@
       </c>
       <c r="F50" s="41">
         <f>F48</f>
-        <v>15940.421734545454</v>
+        <v>15169.562181818181</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
